--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -487,31 +488,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.844</v>
+        <v>24.01305283611785</v>
       </c>
       <c r="C2" t="n">
-        <v>1.579333333333333</v>
+        <v>20.79887990985664</v>
       </c>
       <c r="D2" t="n">
-        <v>1.167581257914732</v>
+        <v>1.32380203498091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1230040649734796</v>
+        <v>1.902921941792619</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1157871610614349</v>
+        <v>1.570539812545523</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>21.78947368421053</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43</v>
+        <v>18.52631578947368</v>
       </c>
       <c r="I2" t="n">
-        <v>2.04</v>
+        <v>26.55882352941176</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -521,99 +522,99 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.764</v>
+        <v>282.8715862921746</v>
       </c>
       <c r="C3" t="n">
-        <v>19.03533333333333</v>
+        <v>250.6886248215516</v>
       </c>
       <c r="D3" t="n">
-        <v>1.143347459111127</v>
+        <v>1.202587881010183</v>
       </c>
       <c r="E3" t="n">
-        <v>1.971276236350451</v>
+        <v>21.66699187339958</v>
       </c>
       <c r="F3" t="n">
-        <v>1.251124446628864</v>
+        <v>15.73898102728709</v>
       </c>
       <c r="G3" t="n">
-        <v>19.27</v>
+        <v>248.8611111111111</v>
       </c>
       <c r="H3" t="n">
-        <v>17.3</v>
+        <v>230.2941176470588</v>
       </c>
       <c r="I3" t="n">
-        <v>24.37</v>
+        <v>304</v>
       </c>
       <c r="J3" t="n">
-        <v>21.36</v>
+        <v>284.8333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>minutes_full_tip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.808</v>
+        <v>39180.04759387871</v>
       </c>
       <c r="C4" t="n">
-        <v>18.218</v>
+        <v>34940.09341985107</v>
       </c>
       <c r="D4" t="n">
-        <v>1.142167087495883</v>
+        <v>1.189538881673539</v>
       </c>
       <c r="E4" t="n">
-        <v>2.381064887818054</v>
+        <v>2913.922087519211</v>
       </c>
       <c r="F4" t="n">
-        <v>1.025240041579114</v>
+        <v>1924.068573910386</v>
       </c>
       <c r="G4" t="n">
-        <v>17.81</v>
+        <v>34507.02777777778</v>
       </c>
       <c r="H4" t="n">
-        <v>16.43</v>
+        <v>32054.20588235294</v>
       </c>
       <c r="I4" t="n">
-        <v>24.18</v>
+        <v>41912.60526315789</v>
       </c>
       <c r="J4" t="n">
-        <v>19.77</v>
+        <v>38206.55555555555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3014.09</v>
+        <v>392.4135544212944</v>
       </c>
       <c r="C5" t="n">
-        <v>2653.272666666667</v>
+        <v>357.8958443427948</v>
       </c>
       <c r="D5" t="n">
-        <v>1.135989541469415</v>
+        <v>1.095821085237854</v>
       </c>
       <c r="E5" t="n">
-        <v>263.6402207554833</v>
+        <v>22.50433614551529</v>
       </c>
       <c r="F5" t="n">
-        <v>159.2276652409851</v>
+        <v>19.90170352917276</v>
       </c>
       <c r="G5" t="n">
-        <v>2671.51</v>
+        <v>357.5555555555555</v>
       </c>
       <c r="H5" t="n">
-        <v>2396.21</v>
+        <v>333.6666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>3360.08</v>
+        <v>411.3243243243243</v>
       </c>
       <c r="J5" t="n">
-        <v>2894.09</v>
+        <v>399.9444444444445</v>
       </c>
     </row>
     <row r="6">
@@ -623,813 +624,745 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>478.182</v>
+        <v>6218.596416385425</v>
       </c>
       <c r="C6" t="n">
-        <v>425.548</v>
+        <v>5604.592644989085</v>
       </c>
       <c r="D6" t="n">
-        <v>1.123685224698506</v>
+        <v>1.017982270033712</v>
       </c>
       <c r="E6" t="n">
-        <v>39.4293085153671</v>
+        <v>486.9901043919844</v>
       </c>
       <c r="F6" t="n">
-        <v>32.36886581710447</v>
+        <v>414.6387759225953</v>
       </c>
       <c r="G6" t="n">
-        <v>429.89</v>
+        <v>5713.138888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>377.79</v>
+        <v>5023.333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>518.21</v>
+        <v>6848.837837837837</v>
       </c>
       <c r="J6" t="n">
-        <v>481.7</v>
+        <v>6275.472222222223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>highdecel_count_full_tip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.894</v>
+        <v>41.82300690783662</v>
       </c>
       <c r="C7" t="n">
-        <v>24.46133333333333</v>
+        <v>38.80936123651294</v>
       </c>
       <c r="D7" t="n">
-        <v>1.117261959136445</v>
+        <v>1.00088205798546</v>
       </c>
       <c r="E7" t="n">
-        <v>1.556496064884201</v>
+        <v>1.626242684432283</v>
       </c>
       <c r="F7" t="n">
-        <v>1.363848895414667</v>
+        <v>2.482864411457788</v>
       </c>
       <c r="G7" t="n">
-        <v>19.88</v>
+        <v>39.72222222222222</v>
       </c>
       <c r="H7" t="n">
-        <v>22.1</v>
+        <v>33.91176470588236</v>
       </c>
       <c r="I7" t="n">
-        <v>23.3</v>
+        <v>44.24324324324324</v>
       </c>
       <c r="J7" t="n">
-        <v>27.31</v>
+        <v>42.63888888888889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.18</v>
+        <v>284.1324347567382</v>
       </c>
       <c r="C8" t="n">
-        <v>27.18</v>
+        <v>323.8799509755723</v>
       </c>
       <c r="D8" t="n">
-        <v>1.11037527593819</v>
+        <v>0.8782811875071506</v>
       </c>
       <c r="E8" t="n">
-        <v>2.042118997512143</v>
+        <v>19.64333305433354</v>
       </c>
       <c r="F8" t="n">
-        <v>1.673469449975111</v>
+        <v>16.52037988726842</v>
       </c>
       <c r="G8" t="n">
-        <v>27.68</v>
+        <v>258.4411764705882</v>
       </c>
       <c r="H8" t="n">
-        <v>24.82</v>
+        <v>286.75</v>
       </c>
       <c r="I8" t="n">
-        <v>32.46</v>
+        <v>307.972972972973</v>
       </c>
       <c r="J8" t="n">
-        <v>30.14</v>
+        <v>346.9714285714286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.642</v>
+        <v>224.408391208546</v>
       </c>
       <c r="C9" t="n">
-        <v>2.931333333333333</v>
+        <v>209.6338890122092</v>
       </c>
       <c r="D9" t="n">
-        <v>1.109512995205652</v>
+        <v>0.8590726103545149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06833739825307961</v>
+        <v>12.20985490873209</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3692437574028197</v>
+        <v>13.50665814775335</v>
       </c>
       <c r="G9" t="n">
-        <v>2.57</v>
+        <v>207.5833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>2.41</v>
+        <v>191.3529411764706</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>237.5405405405405</v>
       </c>
       <c r="J9" t="n">
-        <v>3.69</v>
+        <v>239.9722222222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>minutes_full_otip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.694</v>
+        <v>265.2888535594418</v>
       </c>
       <c r="C10" t="n">
-        <v>19.43266666666667</v>
+        <v>248.1136849305969</v>
       </c>
       <c r="D10" t="n">
-        <v>1.098263064692363</v>
+        <v>0.8299677261602816</v>
       </c>
       <c r="E10" t="n">
-        <v>1.160163781541209</v>
+        <v>16.36397333261147</v>
       </c>
       <c r="F10" t="n">
-        <v>0.902001478195389</v>
+        <v>17.24683878136912</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44</v>
+        <v>243.0555555555555</v>
       </c>
       <c r="H10" t="n">
-        <v>17.79</v>
+        <v>224.7058823529412</v>
       </c>
       <c r="I10" t="n">
-        <v>18.74</v>
+        <v>282.4054054054054</v>
       </c>
       <c r="J10" t="n">
-        <v>21.28</v>
+        <v>287.2222222222222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.312</v>
+        <v>35672.82977389154</v>
       </c>
       <c r="C11" t="n">
-        <v>33.26933333333333</v>
+        <v>39940.45629159649</v>
       </c>
       <c r="D11" t="n">
-        <v>1.09756312131609</v>
+        <v>0.7700781228182922</v>
       </c>
       <c r="E11" t="n">
-        <v>1.768536117810433</v>
+        <v>2392.808116992679</v>
       </c>
       <c r="F11" t="n">
-        <v>1.764270252486711</v>
+        <v>1659.445136178772</v>
       </c>
       <c r="G11" t="n">
-        <v>27.71</v>
+        <v>32962.38235294117</v>
       </c>
       <c r="H11" t="n">
-        <v>30.77</v>
+        <v>37074.5</v>
       </c>
       <c r="I11" t="n">
-        <v>31.71</v>
+        <v>38497.86111111111</v>
       </c>
       <c r="J11" t="n">
-        <v>37.16</v>
+        <v>42921.1935483871</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2749.076</v>
+        <v>393.5164653817905</v>
       </c>
       <c r="C12" t="n">
-        <v>3016.429333333333</v>
+        <v>440.4830989399894</v>
       </c>
       <c r="D12" t="n">
-        <v>1.097252070635127</v>
+        <v>0.7680528035195515</v>
       </c>
       <c r="E12" t="n">
-        <v>193.0055974058783</v>
+        <v>25.30255069163524</v>
       </c>
       <c r="F12" t="n">
-        <v>143.701218777348</v>
+        <v>20.16320135014039</v>
       </c>
       <c r="G12" t="n">
-        <v>2535.57</v>
+        <v>360.2941176470588</v>
       </c>
       <c r="H12" t="n">
-        <v>2772.91</v>
+        <v>399.1944444444445</v>
       </c>
       <c r="I12" t="n">
-        <v>3006.34</v>
+        <v>428.0540540540541</v>
       </c>
       <c r="J12" t="n">
-        <v>3411.68</v>
+        <v>467.516129032258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.216</v>
+        <v>2370.930398200058</v>
       </c>
       <c r="C13" t="n">
-        <v>2.947333333333334</v>
+        <v>2234.844933038002</v>
       </c>
       <c r="D13" t="n">
-        <v>1.091155847093418</v>
+        <v>0.7310820170210713</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1190798051728336</v>
+        <v>154.8168338069908</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1931863152010318</v>
+        <v>156.4746779448015</v>
       </c>
       <c r="G13" t="n">
-        <v>3.08</v>
+        <v>2132.555555555556</v>
       </c>
       <c r="H13" t="n">
-        <v>2.57</v>
+        <v>2047.411764705882</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>2512.882352941177</v>
       </c>
       <c r="J13" t="n">
-        <v>3.24</v>
+        <v>2539.166666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51.59399999999999</v>
+        <v>3171.376750434645</v>
       </c>
       <c r="C14" t="n">
-        <v>56.18666666666666</v>
+        <v>2984.926228373656</v>
       </c>
       <c r="D14" t="n">
-        <v>1.089015518600354</v>
+        <v>0.7191928460617646</v>
       </c>
       <c r="E14" t="n">
-        <v>2.99953829780518</v>
+        <v>265.3883804119669</v>
       </c>
       <c r="F14" t="n">
-        <v>6.255230573193088</v>
+        <v>225.429902421641</v>
       </c>
       <c r="G14" t="n">
-        <v>47.03</v>
+        <v>2788.777777777778</v>
       </c>
       <c r="H14" t="n">
-        <v>48.01</v>
+        <v>2699</v>
       </c>
       <c r="I14" t="n">
-        <v>54.61</v>
+        <v>3403</v>
       </c>
       <c r="J14" t="n">
-        <v>69.17</v>
+        <v>3462.027777777778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.246</v>
+        <v>34.31082847553436</v>
       </c>
       <c r="C15" t="n">
-        <v>15.91466666666667</v>
+        <v>38.76850653781144</v>
       </c>
       <c r="D15" t="n">
-        <v>1.083654490616622</v>
+        <v>0.6797139914307773</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8191642082024824</v>
+        <v>1.975488290622764</v>
       </c>
       <c r="F15" t="n">
-        <v>1.023026788272824</v>
+        <v>4.323561598063701</v>
       </c>
       <c r="G15" t="n">
-        <v>16.07</v>
+        <v>32</v>
       </c>
       <c r="H15" t="n">
-        <v>14.52</v>
+        <v>32.38888888888889</v>
       </c>
       <c r="I15" t="n">
-        <v>17.98</v>
+        <v>36.54054054054054</v>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>47.22857142857143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>sprint_count_full_tip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.382</v>
+        <v>40.8804623508958</v>
       </c>
       <c r="C16" t="n">
-        <v>18.83533333333333</v>
+        <v>38.47979591838774</v>
       </c>
       <c r="D16" t="n">
-        <v>1.082115173609882</v>
+        <v>0.6607358386432851</v>
       </c>
       <c r="E16" t="n">
-        <v>1.041426905740388</v>
+        <v>4.419566534781073</v>
       </c>
       <c r="F16" t="n">
-        <v>1.305411082854016</v>
+        <v>3.946179966407858</v>
       </c>
       <c r="G16" t="n">
-        <v>18.82</v>
+        <v>35.47222222222222</v>
       </c>
       <c r="H16" t="n">
-        <v>17.05</v>
+        <v>33.35294117647059</v>
       </c>
       <c r="I16" t="n">
-        <v>21.37</v>
+        <v>44.86486486486486</v>
       </c>
       <c r="J16" t="n">
-        <v>21.54</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>521.0840000000001</v>
+        <v>800.4463522345875</v>
       </c>
       <c r="C17" t="n">
-        <v>562.9426666666669</v>
+        <v>750.0812953356547</v>
       </c>
       <c r="D17" t="n">
-        <v>1.080329978787809</v>
+        <v>0.6245454325562021</v>
       </c>
       <c r="E17" t="n">
-        <v>46.77750666720065</v>
+        <v>119.1228560051238</v>
       </c>
       <c r="F17" t="n">
-        <v>35.6473888978996</v>
+        <v>83.65816064728655</v>
       </c>
       <c r="G17" t="n">
-        <v>492.72</v>
+        <v>656.2222222222222</v>
       </c>
       <c r="H17" t="n">
-        <v>512.66</v>
+        <v>645.6388888888889</v>
       </c>
       <c r="I17" t="n">
-        <v>604.3200000000001</v>
+        <v>893.8648648648649</v>
       </c>
       <c r="J17" t="n">
-        <v>663.98</v>
+        <v>922.8611111111111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.396</v>
+        <v>6762.523636329829</v>
       </c>
       <c r="C18" t="n">
-        <v>56.93666666666667</v>
+        <v>7451.203390133724</v>
       </c>
       <c r="D18" t="n">
-        <v>1.078320941396874</v>
+        <v>0.6173133798652095</v>
       </c>
       <c r="E18" t="n">
-        <v>8.020064214206766</v>
+        <v>592.216173684484</v>
       </c>
       <c r="F18" t="n">
-        <v>6.322200867540022</v>
+        <v>381.1414890483948</v>
       </c>
       <c r="G18" t="n">
-        <v>50.8</v>
+        <v>6148.973684210527</v>
       </c>
       <c r="H18" t="n">
-        <v>49.45</v>
+        <v>6898.315789473684</v>
       </c>
       <c r="I18" t="n">
-        <v>68.47</v>
+        <v>7738.611111111111</v>
       </c>
       <c r="J18" t="n">
-        <v>69.59</v>
+        <v>8353.322580645161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_full_otip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.624</v>
+        <v>273.9395001812959</v>
       </c>
       <c r="C19" t="n">
-        <v>226.582</v>
+        <v>300.127298342985</v>
       </c>
       <c r="D19" t="n">
-        <v>1.075213388530421</v>
+        <v>0.5611673912968456</v>
       </c>
       <c r="E19" t="n">
-        <v>17.90242944407266</v>
+        <v>11.80191701525046</v>
       </c>
       <c r="F19" t="n">
-        <v>16.77354898983175</v>
+        <v>20.9515429486827</v>
       </c>
       <c r="G19" t="n">
-        <v>215.91</v>
+        <v>256.4473684210527</v>
       </c>
       <c r="H19" t="n">
-        <v>204.83</v>
+        <v>267.7837837837838</v>
       </c>
       <c r="I19" t="n">
-        <v>261.77</v>
+        <v>283.5945945945946</v>
       </c>
       <c r="J19" t="n">
-        <v>259.65</v>
+        <v>344.4193548387097</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.098</v>
+        <v>670.2551464777471</v>
       </c>
       <c r="C20" t="n">
-        <v>22.68399999999999</v>
+        <v>743.3086214982585</v>
       </c>
       <c r="D20" t="n">
-        <v>1.075173002180301</v>
+        <v>0.5364593773675737</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6066053082524094</v>
+        <v>51.47307585582318</v>
       </c>
       <c r="F20" t="n">
-        <v>1.930521025156532</v>
+        <v>72.92720939330938</v>
       </c>
       <c r="G20" t="n">
-        <v>20.54</v>
+        <v>602.2222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>19.66</v>
+        <v>638.6666666666666</v>
       </c>
       <c r="I20" t="n">
-        <v>22.03</v>
+        <v>726.1351351351351</v>
       </c>
       <c r="J20" t="n">
-        <v>27.38</v>
+        <v>893.8571428571429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.138</v>
+        <v>239.6286717057615</v>
       </c>
       <c r="C21" t="n">
-        <v>2.921333333333334</v>
+        <v>261.3587918051736</v>
       </c>
       <c r="D21" t="n">
-        <v>1.074167047010497</v>
+        <v>0.5293371954896419</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2748090245970827</v>
+        <v>10.30805391495028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2980140616688766</v>
+        <v>16.83744418076863</v>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>224.4473684210526</v>
       </c>
       <c r="H21" t="n">
-        <v>2.53</v>
+        <v>234.4324324324324</v>
       </c>
       <c r="I21" t="n">
-        <v>3.39</v>
+        <v>248.7222222222222</v>
       </c>
       <c r="J21" t="n">
-        <v>3.54</v>
+        <v>298.0322580645162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>182.226</v>
+        <v>49.42814548294425</v>
       </c>
       <c r="C22" t="n">
-        <v>169.6446666666667</v>
+        <v>53.52895080353785</v>
       </c>
       <c r="D22" t="n">
-        <v>1.074162858052321</v>
+        <v>0.4470811510755114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.38770301685112</v>
+        <v>4.257584009435102</v>
       </c>
       <c r="F22" t="n">
-        <v>11.56566894283414</v>
+        <v>2.664996249762853</v>
       </c>
       <c r="G22" t="n">
-        <v>165.1</v>
+        <v>44.8421052631579</v>
       </c>
       <c r="H22" t="n">
-        <v>154.42</v>
+        <v>49.55555555555556</v>
       </c>
       <c r="I22" t="n">
-        <v>193.3</v>
+        <v>55.4054054054054</v>
       </c>
       <c r="J22" t="n">
-        <v>190.44</v>
+        <v>58.91666666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.458</v>
+        <v>3277.307310406382</v>
       </c>
       <c r="C23" t="n">
-        <v>19.75333333333333</v>
+        <v>3551.753075315117</v>
       </c>
       <c r="D23" t="n">
-        <v>1.070177339545635</v>
+        <v>0.44368922240731</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5960033556952519</v>
+        <v>112.7212768312984</v>
       </c>
       <c r="F23" t="n">
-        <v>1.576327860506667</v>
+        <v>248.8326251973704</v>
       </c>
       <c r="G23" t="n">
-        <v>17.97</v>
+        <v>3100.578947368421</v>
       </c>
       <c r="H23" t="n">
-        <v>17.21</v>
+        <v>3129.108108108108</v>
       </c>
       <c r="I23" t="n">
-        <v>19.42</v>
+        <v>3406.378378378378</v>
       </c>
       <c r="J23" t="n">
-        <v>23.69</v>
+        <v>4035.628571428571</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>252.488</v>
+        <v>2607.052163928634</v>
       </c>
       <c r="C24" t="n">
-        <v>268.4520000000001</v>
+        <v>2808.44445381686</v>
       </c>
       <c r="D24" t="n">
-        <v>1.063226767212699</v>
+        <v>0.39580282345999</v>
       </c>
       <c r="E24" t="n">
-        <v>7.50601558751379</v>
+        <v>109.7842759659643</v>
       </c>
       <c r="F24" t="n">
-        <v>22.87124963791879</v>
+        <v>182.8159953165728</v>
       </c>
       <c r="G24" t="n">
-        <v>239.46</v>
+        <v>2448.5</v>
       </c>
       <c r="H24" t="n">
-        <v>229.72</v>
+        <v>2451.783783783784</v>
       </c>
       <c r="I24" t="n">
-        <v>258.38</v>
+        <v>2706.444444444444</v>
       </c>
       <c r="J24" t="n">
-        <v>320.47</v>
+        <v>3161.548387096774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>total_metersperminute_full_tip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.802</v>
+        <v>1859.633710289236</v>
       </c>
       <c r="C25" t="n">
-        <v>4.042</v>
+        <v>1893.408175139213</v>
       </c>
       <c r="D25" t="n">
-        <v>1.063124671225671</v>
+        <v>0.1682959780211736</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2247665455533808</v>
+        <v>79.25132198911413</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2231015143702204</v>
+        <v>63.37387130742393</v>
       </c>
       <c r="G25" t="n">
-        <v>3.52</v>
+        <v>1727.025263157895</v>
       </c>
       <c r="H25" t="n">
-        <v>3.69</v>
+        <v>1794.498709677419</v>
       </c>
       <c r="I25" t="n">
-        <v>4.08</v>
+        <v>1927.291351351351</v>
       </c>
       <c r="J25" t="n">
-        <v>4.39</v>
+        <v>2039.48945945946</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200.894</v>
+        <v>20.61252196468914</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2646666666666</v>
+        <v>21.70451583483442</v>
       </c>
       <c r="D26" t="n">
-        <v>1.056600329858864</v>
+        <v>0.1380175141958879</v>
       </c>
       <c r="E26" t="n">
-        <v>9.050338667696359</v>
+        <v>1.685055320724574</v>
       </c>
       <c r="F26" t="n">
-        <v>17.09194499784983</v>
+        <v>1.332890566649161</v>
       </c>
       <c r="G26" t="n">
-        <v>186.68</v>
+        <v>18.31578947368421</v>
       </c>
       <c r="H26" t="n">
-        <v>179.99</v>
+        <v>19.39473684210526</v>
       </c>
       <c r="I26" t="n">
-        <v>211.35</v>
+        <v>23.05405405405405</v>
       </c>
       <c r="J26" t="n">
-        <v>251.3</v>
+        <v>23.72972972972973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.586</v>
+        <v>1960.19461861397</v>
       </c>
       <c r="C27" t="n">
-        <v>1.637999999999999</v>
+        <v>2013.279798698554</v>
       </c>
       <c r="D27" t="n">
-        <v>1.032786885245901</v>
+        <v>0.1092994207226024</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07668115805072324</v>
+        <v>91.94731956190445</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1053022859608063</v>
+        <v>56.02261417878828</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1798.187631578948</v>
       </c>
       <c r="H27" t="n">
-        <v>1.49</v>
+        <v>1890.902105263158</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>2017.574722222222</v>
       </c>
       <c r="J27" t="n">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>total_metersperminute_full_otip</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>148.702</v>
-      </c>
-      <c r="C28" t="n">
-        <v>149.9493333333334</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.008388140935114</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.007466425249405</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.778857593294324</v>
-      </c>
-      <c r="G28" t="n">
-        <v>143.85</v>
-      </c>
-      <c r="H28" t="n">
-        <v>145.58</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155.83</v>
-      </c>
-      <c r="J28" t="n">
-        <v>154.4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>total_metersperminute_full_tip</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>139.264</v>
-      </c>
-      <c r="C29" t="n">
-        <v>139.9206666666667</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.004715265012255</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.566367900259308</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.121042560854732</v>
-      </c>
-      <c r="G29" t="n">
-        <v>134.68</v>
-      </c>
-      <c r="H29" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>142.95</v>
-      </c>
-      <c r="J29" t="n">
-        <v>146.3</v>
+        <v>2117.182702702702</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -494,7 +493,7 @@
         <v>20.79887990985664</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32380203498091</v>
+        <v>15.45</v>
       </c>
       <c r="E2" t="n">
         <v>1.902921941792619</v>
@@ -525,10 +524,10 @@
         <v>282.8715862921746</v>
       </c>
       <c r="C3" t="n">
-        <v>250.6886248215516</v>
+        <v>250.6886248215515</v>
       </c>
       <c r="D3" t="n">
-        <v>1.202587881010183</v>
+        <v>12.84</v>
       </c>
       <c r="E3" t="n">
         <v>21.66699187339958</v>
@@ -552,817 +551,817 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39180.04759387871</v>
+        <v>284.1324347567382</v>
       </c>
       <c r="C4" t="n">
-        <v>34940.09341985107</v>
+        <v>323.8799509755722</v>
       </c>
       <c r="D4" t="n">
-        <v>1.189538881673539</v>
+        <v>-12.27</v>
       </c>
       <c r="E4" t="n">
-        <v>2913.922087519211</v>
+        <v>19.64333305433354</v>
       </c>
       <c r="F4" t="n">
-        <v>1924.068573910386</v>
+        <v>16.52037988726842</v>
       </c>
       <c r="G4" t="n">
-        <v>34507.02777777778</v>
+        <v>258.4411764705882</v>
       </c>
       <c r="H4" t="n">
-        <v>32054.20588235294</v>
+        <v>286.75</v>
       </c>
       <c r="I4" t="n">
-        <v>41912.60526315789</v>
+        <v>307.972972972973</v>
       </c>
       <c r="J4" t="n">
-        <v>38206.55555555555</v>
+        <v>346.9714285714286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>392.4135544212944</v>
+        <v>39180.04759387871</v>
       </c>
       <c r="C5" t="n">
-        <v>357.8958443427948</v>
+        <v>34940.09341985107</v>
       </c>
       <c r="D5" t="n">
-        <v>1.095821085237854</v>
+        <v>12.13</v>
       </c>
       <c r="E5" t="n">
-        <v>22.50433614551529</v>
+        <v>2913.922087519211</v>
       </c>
       <c r="F5" t="n">
-        <v>19.90170352917276</v>
+        <v>1924.068573910386</v>
       </c>
       <c r="G5" t="n">
-        <v>357.5555555555555</v>
+        <v>34507.02777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>333.6666666666667</v>
+        <v>32054.20588235294</v>
       </c>
       <c r="I5" t="n">
-        <v>411.3243243243243</v>
+        <v>41912.60526315789</v>
       </c>
       <c r="J5" t="n">
-        <v>399.9444444444445</v>
+        <v>38206.55555555555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6218.596416385425</v>
+        <v>34.31082847553436</v>
       </c>
       <c r="C6" t="n">
-        <v>5604.592644989085</v>
+        <v>38.76850653781144</v>
       </c>
       <c r="D6" t="n">
-        <v>1.017982270033712</v>
+        <v>-11.5</v>
       </c>
       <c r="E6" t="n">
-        <v>486.9901043919844</v>
+        <v>1.975488290622764</v>
       </c>
       <c r="F6" t="n">
-        <v>414.6387759225953</v>
+        <v>4.323561598063701</v>
       </c>
       <c r="G6" t="n">
-        <v>5713.138888888889</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>5023.333333333333</v>
+        <v>32.38888888888889</v>
       </c>
       <c r="I6" t="n">
-        <v>6848.837837837837</v>
+        <v>36.54054054054054</v>
       </c>
       <c r="J6" t="n">
-        <v>6275.472222222223</v>
+        <v>47.22857142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.82300690783662</v>
+        <v>6218.596416385425</v>
       </c>
       <c r="C7" t="n">
-        <v>38.80936123651294</v>
+        <v>5604.592644989084</v>
       </c>
       <c r="D7" t="n">
-        <v>1.00088205798546</v>
+        <v>10.96</v>
       </c>
       <c r="E7" t="n">
-        <v>1.626242684432283</v>
+        <v>486.9901043919844</v>
       </c>
       <c r="F7" t="n">
-        <v>2.482864411457788</v>
+        <v>414.6387759225953</v>
       </c>
       <c r="G7" t="n">
-        <v>39.72222222222222</v>
+        <v>5713.138888888889</v>
       </c>
       <c r="H7" t="n">
-        <v>33.91176470588236</v>
+        <v>5023.333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>44.24324324324324</v>
+        <v>6848.837837837837</v>
       </c>
       <c r="J7" t="n">
-        <v>42.63888888888889</v>
+        <v>6275.472222222223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>total_distance_full_otip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>284.1324347567382</v>
+        <v>35672.82977389154</v>
       </c>
       <c r="C8" t="n">
-        <v>323.8799509755723</v>
+        <v>39940.45629159649</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8782811875071506</v>
+        <v>-10.68</v>
       </c>
       <c r="E8" t="n">
-        <v>19.64333305433354</v>
+        <v>2392.808116992679</v>
       </c>
       <c r="F8" t="n">
-        <v>16.52037988726842</v>
+        <v>1659.445136178772</v>
       </c>
       <c r="G8" t="n">
-        <v>258.4411764705882</v>
+        <v>32962.38235294117</v>
       </c>
       <c r="H8" t="n">
-        <v>286.75</v>
+        <v>37074.5</v>
       </c>
       <c r="I8" t="n">
-        <v>307.972972972973</v>
+        <v>38497.86111111111</v>
       </c>
       <c r="J8" t="n">
-        <v>346.9714285714286</v>
+        <v>42921.1935483871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.408391208546</v>
+        <v>393.5164653817905</v>
       </c>
       <c r="C9" t="n">
-        <v>209.6338890122092</v>
+        <v>440.4830989399894</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8590726103545149</v>
+        <v>-10.66</v>
       </c>
       <c r="E9" t="n">
-        <v>12.20985490873209</v>
+        <v>25.30255069163524</v>
       </c>
       <c r="F9" t="n">
-        <v>13.50665814775335</v>
+        <v>20.16320135014039</v>
       </c>
       <c r="G9" t="n">
-        <v>207.5833333333333</v>
+        <v>360.2941176470588</v>
       </c>
       <c r="H9" t="n">
-        <v>191.3529411764706</v>
+        <v>399.1944444444445</v>
       </c>
       <c r="I9" t="n">
-        <v>237.5405405405405</v>
+        <v>428.0540540540541</v>
       </c>
       <c r="J9" t="n">
-        <v>239.9722222222222</v>
+        <v>467.516129032258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265.2888535594418</v>
+        <v>670.2551464777471</v>
       </c>
       <c r="C10" t="n">
-        <v>248.1136849305969</v>
+        <v>743.3086214982585</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8299677261602816</v>
+        <v>-9.83</v>
       </c>
       <c r="E10" t="n">
-        <v>16.36397333261147</v>
+        <v>51.47307585582318</v>
       </c>
       <c r="F10" t="n">
-        <v>17.24683878136912</v>
+        <v>72.92720939330938</v>
       </c>
       <c r="G10" t="n">
-        <v>243.0555555555555</v>
+        <v>602.2222222222222</v>
       </c>
       <c r="H10" t="n">
-        <v>224.7058823529412</v>
+        <v>638.6666666666666</v>
       </c>
       <c r="I10" t="n">
-        <v>282.4054054054054</v>
+        <v>726.1351351351351</v>
       </c>
       <c r="J10" t="n">
-        <v>287.2222222222222</v>
+        <v>893.8571428571429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35672.82977389154</v>
+        <v>392.4135544212944</v>
       </c>
       <c r="C11" t="n">
-        <v>39940.45629159649</v>
+        <v>357.8958443427949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7700781228182922</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>2392.808116992679</v>
+        <v>22.50433614551529</v>
       </c>
       <c r="F11" t="n">
-        <v>1659.445136178772</v>
+        <v>19.90170352917276</v>
       </c>
       <c r="G11" t="n">
-        <v>32962.38235294117</v>
+        <v>357.5555555555555</v>
       </c>
       <c r="H11" t="n">
-        <v>37074.5</v>
+        <v>333.6666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>38497.86111111111</v>
+        <v>411.3243243243243</v>
       </c>
       <c r="J11" t="n">
-        <v>42921.1935483871</v>
+        <v>399.9444444444445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>393.5164653817905</v>
+        <v>6762.523636329829</v>
       </c>
       <c r="C12" t="n">
-        <v>440.4830989399894</v>
+        <v>7451.203390133724</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7680528035195515</v>
+        <v>-9.24</v>
       </c>
       <c r="E12" t="n">
-        <v>25.30255069163524</v>
+        <v>592.216173684484</v>
       </c>
       <c r="F12" t="n">
-        <v>20.16320135014039</v>
+        <v>381.1414890483948</v>
       </c>
       <c r="G12" t="n">
-        <v>360.2941176470588</v>
+        <v>6148.973684210527</v>
       </c>
       <c r="H12" t="n">
-        <v>399.1944444444445</v>
+        <v>6898.315789473684</v>
       </c>
       <c r="I12" t="n">
-        <v>428.0540540540541</v>
+        <v>7738.611111111111</v>
       </c>
       <c r="J12" t="n">
-        <v>467.516129032258</v>
+        <v>8353.322580645161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hi_count_full_otip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2370.930398200058</v>
+        <v>273.9395001812959</v>
       </c>
       <c r="C13" t="n">
-        <v>2234.844933038002</v>
+        <v>300.127298342985</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7310820170210713</v>
+        <v>-8.73</v>
       </c>
       <c r="E13" t="n">
-        <v>154.8168338069908</v>
+        <v>11.80191701525046</v>
       </c>
       <c r="F13" t="n">
-        <v>156.4746779448015</v>
+        <v>20.9515429486827</v>
       </c>
       <c r="G13" t="n">
-        <v>2132.555555555556</v>
+        <v>256.4473684210527</v>
       </c>
       <c r="H13" t="n">
-        <v>2047.411764705882</v>
+        <v>267.7837837837838</v>
       </c>
       <c r="I13" t="n">
-        <v>2512.882352941177</v>
+        <v>283.5945945945946</v>
       </c>
       <c r="J13" t="n">
-        <v>2539.166666666667</v>
+        <v>344.4193548387097</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3171.376750434645</v>
+        <v>239.6286717057615</v>
       </c>
       <c r="C14" t="n">
-        <v>2984.926228373656</v>
+        <v>261.3587918051736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7191928460617646</v>
+        <v>-8.31</v>
       </c>
       <c r="E14" t="n">
-        <v>265.3883804119669</v>
+        <v>10.30805391495028</v>
       </c>
       <c r="F14" t="n">
-        <v>225.429902421641</v>
+        <v>16.83744418076863</v>
       </c>
       <c r="G14" t="n">
-        <v>2788.777777777778</v>
+        <v>224.4473684210526</v>
       </c>
       <c r="H14" t="n">
-        <v>2699</v>
+        <v>234.4324324324324</v>
       </c>
       <c r="I14" t="n">
-        <v>3403</v>
+        <v>248.7222222222222</v>
       </c>
       <c r="J14" t="n">
-        <v>3462.027777777778</v>
+        <v>298.0322580645162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>highdecel_count_full_tip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.31082847553436</v>
+        <v>41.82300690783662</v>
       </c>
       <c r="C15" t="n">
-        <v>38.76850653781144</v>
+        <v>38.80936123651293</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6797139914307773</v>
+        <v>7.77</v>
       </c>
       <c r="E15" t="n">
-        <v>1.975488290622764</v>
+        <v>1.626242684432283</v>
       </c>
       <c r="F15" t="n">
-        <v>4.323561598063701</v>
+        <v>2.482864411457788</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>39.72222222222222</v>
       </c>
       <c r="H15" t="n">
-        <v>32.38888888888889</v>
+        <v>33.91176470588236</v>
       </c>
       <c r="I15" t="n">
-        <v>36.54054054054054</v>
+        <v>44.24324324324324</v>
       </c>
       <c r="J15" t="n">
-        <v>47.22857142857143</v>
+        <v>42.63888888888889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.8804623508958</v>
+        <v>3277.307310406382</v>
       </c>
       <c r="C16" t="n">
-        <v>38.47979591838774</v>
+        <v>3551.753075315117</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6607358386432851</v>
+        <v>-7.73</v>
       </c>
       <c r="E16" t="n">
-        <v>4.419566534781073</v>
+        <v>112.7212768312984</v>
       </c>
       <c r="F16" t="n">
-        <v>3.946179966407858</v>
+        <v>248.8326251973704</v>
       </c>
       <c r="G16" t="n">
-        <v>35.47222222222222</v>
+        <v>3100.578947368421</v>
       </c>
       <c r="H16" t="n">
-        <v>33.35294117647059</v>
+        <v>3129.108108108108</v>
       </c>
       <c r="I16" t="n">
-        <v>44.86486486486486</v>
+        <v>3406.378378378378</v>
       </c>
       <c r="J16" t="n">
-        <v>47.25</v>
+        <v>4035.628571428571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>800.4463522345875</v>
+        <v>49.42814548294425</v>
       </c>
       <c r="C17" t="n">
-        <v>750.0812953356547</v>
+        <v>53.52895080353785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6245454325562021</v>
+        <v>-7.66</v>
       </c>
       <c r="E17" t="n">
-        <v>119.1228560051238</v>
+        <v>4.257584009435102</v>
       </c>
       <c r="F17" t="n">
-        <v>83.65816064728655</v>
+        <v>2.664996249762853</v>
       </c>
       <c r="G17" t="n">
-        <v>656.2222222222222</v>
+        <v>44.8421052631579</v>
       </c>
       <c r="H17" t="n">
-        <v>645.6388888888889</v>
+        <v>49.55555555555556</v>
       </c>
       <c r="I17" t="n">
-        <v>893.8648648648649</v>
+        <v>55.4054054054054</v>
       </c>
       <c r="J17" t="n">
-        <v>922.8611111111111</v>
+        <v>58.91666666666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6762.523636329829</v>
+        <v>2607.052163928634</v>
       </c>
       <c r="C18" t="n">
-        <v>7451.203390133724</v>
+        <v>2808.44445381686</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6173133798652095</v>
+        <v>-7.17</v>
       </c>
       <c r="E18" t="n">
-        <v>592.216173684484</v>
+        <v>109.7842759659643</v>
       </c>
       <c r="F18" t="n">
-        <v>381.1414890483948</v>
+        <v>182.8159953165728</v>
       </c>
       <c r="G18" t="n">
-        <v>6148.973684210527</v>
+        <v>2448.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6898.315789473684</v>
+        <v>2451.783783783784</v>
       </c>
       <c r="I18" t="n">
-        <v>7738.611111111111</v>
+        <v>2706.444444444444</v>
       </c>
       <c r="J18" t="n">
-        <v>8353.322580645161</v>
+        <v>3161.548387096774</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>273.9395001812959</v>
+        <v>224.408391208546</v>
       </c>
       <c r="C19" t="n">
-        <v>300.127298342985</v>
+        <v>209.6338890122092</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5611673912968456</v>
+        <v>7.05</v>
       </c>
       <c r="E19" t="n">
-        <v>11.80191701525046</v>
+        <v>12.20985490873209</v>
       </c>
       <c r="F19" t="n">
-        <v>20.9515429486827</v>
+        <v>13.50665814775335</v>
       </c>
       <c r="G19" t="n">
-        <v>256.4473684210527</v>
+        <v>207.5833333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>267.7837837837838</v>
+        <v>191.3529411764706</v>
       </c>
       <c r="I19" t="n">
-        <v>283.5945945945946</v>
+        <v>237.5405405405405</v>
       </c>
       <c r="J19" t="n">
-        <v>344.4193548387097</v>
+        <v>239.9722222222222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>670.2551464777471</v>
+        <v>265.2888535594418</v>
       </c>
       <c r="C20" t="n">
-        <v>743.3086214982585</v>
+        <v>248.1136849305969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5364593773675737</v>
+        <v>6.92</v>
       </c>
       <c r="E20" t="n">
-        <v>51.47307585582318</v>
+        <v>16.36397333261147</v>
       </c>
       <c r="F20" t="n">
-        <v>72.92720939330938</v>
+        <v>17.24683878136912</v>
       </c>
       <c r="G20" t="n">
-        <v>602.2222222222222</v>
+        <v>243.0555555555555</v>
       </c>
       <c r="H20" t="n">
-        <v>638.6666666666666</v>
+        <v>224.7058823529412</v>
       </c>
       <c r="I20" t="n">
-        <v>726.1351351351351</v>
+        <v>282.4054054054054</v>
       </c>
       <c r="J20" t="n">
-        <v>893.8571428571429</v>
+        <v>287.2222222222222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>239.6286717057615</v>
+        <v>800.4463522345875</v>
       </c>
       <c r="C21" t="n">
-        <v>261.3587918051736</v>
+        <v>750.0812953356547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5293371954896419</v>
+        <v>6.71</v>
       </c>
       <c r="E21" t="n">
-        <v>10.30805391495028</v>
+        <v>119.1228560051238</v>
       </c>
       <c r="F21" t="n">
-        <v>16.83744418076863</v>
+        <v>83.65816064728655</v>
       </c>
       <c r="G21" t="n">
-        <v>224.4473684210526</v>
+        <v>656.2222222222222</v>
       </c>
       <c r="H21" t="n">
-        <v>234.4324324324324</v>
+        <v>645.6388888888889</v>
       </c>
       <c r="I21" t="n">
-        <v>248.7222222222222</v>
+        <v>893.8648648648649</v>
       </c>
       <c r="J21" t="n">
-        <v>298.0322580645162</v>
+        <v>922.8611111111111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.42814548294425</v>
+        <v>3171.376750434645</v>
       </c>
       <c r="C22" t="n">
-        <v>53.52895080353785</v>
+        <v>2984.926228373656</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4470811510755114</v>
+        <v>6.25</v>
       </c>
       <c r="E22" t="n">
-        <v>4.257584009435102</v>
+        <v>265.3883804119669</v>
       </c>
       <c r="F22" t="n">
-        <v>2.664996249762853</v>
+        <v>225.429902421641</v>
       </c>
       <c r="G22" t="n">
-        <v>44.8421052631579</v>
+        <v>2788.777777777778</v>
       </c>
       <c r="H22" t="n">
-        <v>49.55555555555556</v>
+        <v>2699</v>
       </c>
       <c r="I22" t="n">
-        <v>55.4054054054054</v>
+        <v>3403</v>
       </c>
       <c r="J22" t="n">
-        <v>58.91666666666666</v>
+        <v>3462.027777777778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>sprint_count_full_tip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3277.307310406382</v>
+        <v>40.8804623508958</v>
       </c>
       <c r="C23" t="n">
-        <v>3551.753075315117</v>
+        <v>38.47979591838774</v>
       </c>
       <c r="D23" t="n">
-        <v>0.44368922240731</v>
+        <v>6.24</v>
       </c>
       <c r="E23" t="n">
-        <v>112.7212768312984</v>
+        <v>4.419566534781073</v>
       </c>
       <c r="F23" t="n">
-        <v>248.8326251973704</v>
+        <v>3.946179966407858</v>
       </c>
       <c r="G23" t="n">
-        <v>3100.578947368421</v>
+        <v>35.47222222222222</v>
       </c>
       <c r="H23" t="n">
-        <v>3129.108108108108</v>
+        <v>33.35294117647059</v>
       </c>
       <c r="I23" t="n">
-        <v>3406.378378378378</v>
+        <v>44.86486486486486</v>
       </c>
       <c r="J23" t="n">
-        <v>4035.628571428571</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2607.052163928634</v>
+        <v>2370.930398200058</v>
       </c>
       <c r="C24" t="n">
-        <v>2808.44445381686</v>
+        <v>2234.844933038002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.39580282345999</v>
+        <v>6.09</v>
       </c>
       <c r="E24" t="n">
-        <v>109.7842759659643</v>
+        <v>154.8168338069908</v>
       </c>
       <c r="F24" t="n">
-        <v>182.8159953165728</v>
+        <v>156.4746779448015</v>
       </c>
       <c r="G24" t="n">
-        <v>2448.5</v>
+        <v>2132.555555555556</v>
       </c>
       <c r="H24" t="n">
-        <v>2451.783783783784</v>
+        <v>2047.411764705882</v>
       </c>
       <c r="I24" t="n">
-        <v>2706.444444444444</v>
+        <v>2512.882352941177</v>
       </c>
       <c r="J24" t="n">
-        <v>3161.548387096774</v>
+        <v>2539.166666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1859.633710289236</v>
+        <v>20.61252196468914</v>
       </c>
       <c r="C25" t="n">
-        <v>1893.408175139213</v>
+        <v>21.70451583483442</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1682959780211736</v>
+        <v>-5.03</v>
       </c>
       <c r="E25" t="n">
-        <v>79.25132198911413</v>
+        <v>1.685055320724574</v>
       </c>
       <c r="F25" t="n">
-        <v>63.37387130742393</v>
+        <v>1.332890566649161</v>
       </c>
       <c r="G25" t="n">
-        <v>1727.025263157895</v>
+        <v>18.31578947368421</v>
       </c>
       <c r="H25" t="n">
-        <v>1794.498709677419</v>
+        <v>19.39473684210526</v>
       </c>
       <c r="I25" t="n">
-        <v>1927.291351351351</v>
+        <v>23.05405405405405</v>
       </c>
       <c r="J25" t="n">
-        <v>2039.48945945946</v>
+        <v>23.72972972972973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>total_metersperminute_full_otip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20.61252196468914</v>
+        <v>1960.19461861397</v>
       </c>
       <c r="C26" t="n">
-        <v>21.70451583483442</v>
+        <v>2013.279798698554</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1380175141958879</v>
+        <v>-2.64</v>
       </c>
       <c r="E26" t="n">
-        <v>1.685055320724574</v>
+        <v>91.94731956190445</v>
       </c>
       <c r="F26" t="n">
-        <v>1.332890566649161</v>
+        <v>56.02261417878828</v>
       </c>
       <c r="G26" t="n">
-        <v>18.31578947368421</v>
+        <v>1798.187631578948</v>
       </c>
       <c r="H26" t="n">
-        <v>19.39473684210526</v>
+        <v>1890.902105263158</v>
       </c>
       <c r="I26" t="n">
-        <v>23.05405405405405</v>
+        <v>2017.574722222222</v>
       </c>
       <c r="J26" t="n">
-        <v>23.72972972972973</v>
+        <v>2117.182702702702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>total_metersperminute_full_tip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1960.19461861397</v>
+        <v>1859.633710289236</v>
       </c>
       <c r="C27" t="n">
-        <v>2013.279798698554</v>
+        <v>1893.408175139213</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1092994207226024</v>
+        <v>-1.78</v>
       </c>
       <c r="E27" t="n">
-        <v>91.94731956190445</v>
+        <v>79.25132198911413</v>
       </c>
       <c r="F27" t="n">
-        <v>56.02261417878828</v>
+        <v>63.37387130742393</v>
       </c>
       <c r="G27" t="n">
-        <v>1798.187631578948</v>
+        <v>1727.025263157895</v>
       </c>
       <c r="H27" t="n">
-        <v>1890.902105263158</v>
+        <v>1794.498709677419</v>
       </c>
       <c r="I27" t="n">
-        <v>2017.574722222222</v>
+        <v>1927.291351351351</v>
       </c>
       <c r="J27" t="n">
-        <v>2117.182702702702</v>
+        <v>2039.48945945946</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.01305283611785</v>
+        <v>22.69628049283338</v>
       </c>
       <c r="C2" t="n">
-        <v>20.79887990985664</v>
+        <v>19.59184374391782</v>
       </c>
       <c r="D2" t="n">
-        <v>15.45</v>
+        <v>15.85</v>
       </c>
       <c r="E2" t="n">
-        <v>1.902921941792619</v>
+        <v>1.792922429939073</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570539812545523</v>
+        <v>1.43580076626216</v>
       </c>
       <c r="G2" t="n">
-        <v>21.78947368421053</v>
+        <v>20.71681271646442</v>
       </c>
       <c r="H2" t="n">
-        <v>18.52631578947368</v>
+        <v>17.62620049982698</v>
       </c>
       <c r="I2" t="n">
-        <v>26.55882352941176</v>
+        <v>25.17144328777763</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>22.42705974676062</v>
       </c>
     </row>
     <row r="3">
@@ -521,167 +521,167 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282.8715862921746</v>
+        <v>267.4500914142426</v>
       </c>
       <c r="C3" t="n">
-        <v>250.6886248215515</v>
+        <v>236.2798363565878</v>
       </c>
       <c r="D3" t="n">
-        <v>12.84</v>
+        <v>13.19</v>
       </c>
       <c r="E3" t="n">
-        <v>21.66699187339958</v>
+        <v>21.0493101657786</v>
       </c>
       <c r="F3" t="n">
-        <v>15.73898102728709</v>
+        <v>14.69601210956329</v>
       </c>
       <c r="G3" t="n">
-        <v>248.8611111111111</v>
+        <v>234.4034127069872</v>
       </c>
       <c r="H3" t="n">
-        <v>230.2941176470588</v>
+        <v>216.5225582828384</v>
       </c>
       <c r="I3" t="n">
-        <v>304</v>
+        <v>288.9744933766121</v>
       </c>
       <c r="J3" t="n">
-        <v>284.8333333333333</v>
+        <v>266.3084704183372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.1324347567382</v>
+        <v>37054.67228683398</v>
       </c>
       <c r="C4" t="n">
-        <v>323.8799509755722</v>
+        <v>32940.96424181578</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.27</v>
+        <v>12.49</v>
       </c>
       <c r="E4" t="n">
-        <v>19.64333305433354</v>
+        <v>2834.865781644949</v>
       </c>
       <c r="F4" t="n">
-        <v>16.52037988726842</v>
+        <v>1820.850216594581</v>
       </c>
       <c r="G4" t="n">
-        <v>258.4411764705882</v>
+        <v>32499.04413726227</v>
       </c>
       <c r="H4" t="n">
-        <v>286.75</v>
+        <v>30119.38859742292</v>
       </c>
       <c r="I4" t="n">
-        <v>307.972972972973</v>
+        <v>39835.65461768988</v>
       </c>
       <c r="J4" t="n">
-        <v>346.9714285714286</v>
+        <v>35727.34822351123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>meddecel_count_full_otip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39180.04759387871</v>
+        <v>269.1145739129819</v>
       </c>
       <c r="C5" t="n">
-        <v>34940.09341985107</v>
+        <v>305.5568831931324</v>
       </c>
       <c r="D5" t="n">
-        <v>12.13</v>
+        <v>-11.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2913.922087519211</v>
+        <v>17.82524539767594</v>
       </c>
       <c r="F5" t="n">
-        <v>1924.068573910386</v>
+        <v>15.21740075553104</v>
       </c>
       <c r="G5" t="n">
-        <v>34507.02777777778</v>
+        <v>246.6065971555531</v>
       </c>
       <c r="H5" t="n">
-        <v>32054.20588235294</v>
+        <v>273.5815285978683</v>
       </c>
       <c r="I5" t="n">
-        <v>41912.60526315789</v>
+        <v>291.1439333807644</v>
       </c>
       <c r="J5" t="n">
-        <v>38206.55555555555</v>
+        <v>327.9275164545384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.31082847553436</v>
+        <v>5879.473802624165</v>
       </c>
       <c r="C6" t="n">
-        <v>38.76850653781144</v>
+        <v>5282.933986834801</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.5</v>
+        <v>11.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.975488290622764</v>
+        <v>454.8298805981254</v>
       </c>
       <c r="F6" t="n">
-        <v>4.323561598063701</v>
+        <v>392.541347497087</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>5378.734706132076</v>
       </c>
       <c r="H6" t="n">
-        <v>32.38888888888889</v>
+        <v>4728.006377961241</v>
       </c>
       <c r="I6" t="n">
-        <v>36.54054054054054</v>
+        <v>6443.928726638457</v>
       </c>
       <c r="J6" t="n">
-        <v>47.22857142857143</v>
+        <v>5968.638919531206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6218.596416385425</v>
+        <v>32.45244903266887</v>
       </c>
       <c r="C7" t="n">
-        <v>5604.592644989084</v>
+        <v>36.55165413187867</v>
       </c>
       <c r="D7" t="n">
-        <v>10.96</v>
+        <v>-11.21</v>
       </c>
       <c r="E7" t="n">
-        <v>486.9901043919844</v>
+        <v>1.776669606031176</v>
       </c>
       <c r="F7" t="n">
-        <v>414.6387759225953</v>
+        <v>4.055364948317954</v>
       </c>
       <c r="G7" t="n">
-        <v>5713.138888888889</v>
+        <v>30.44134379420773</v>
       </c>
       <c r="H7" t="n">
-        <v>5023.333333333333</v>
+        <v>30.51344935987909</v>
       </c>
       <c r="I7" t="n">
-        <v>6848.837837837837</v>
+        <v>34.39571636840808</v>
       </c>
       <c r="J7" t="n">
-        <v>6275.472222222223</v>
+        <v>44.37879488398616</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35672.82977389154</v>
+        <v>33786.21131442336</v>
       </c>
       <c r="C8" t="n">
-        <v>39940.45629159649</v>
+        <v>37682.72032574104</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.68</v>
+        <v>-10.34</v>
       </c>
       <c r="E8" t="n">
-        <v>2392.808116992679</v>
+        <v>2157.716089708204</v>
       </c>
       <c r="F8" t="n">
-        <v>1659.445136178772</v>
+        <v>1559.35321079363</v>
       </c>
       <c r="G8" t="n">
-        <v>32962.38235294117</v>
+        <v>31440.17263207441</v>
       </c>
       <c r="H8" t="n">
-        <v>37074.5</v>
+        <v>35375.18827407724</v>
       </c>
       <c r="I8" t="n">
-        <v>38497.86111111111</v>
+        <v>36289.31985932789</v>
       </c>
       <c r="J8" t="n">
-        <v>42921.1935483871</v>
+        <v>40668.16497309941</v>
       </c>
     </row>
     <row r="9">
@@ -725,99 +725,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>393.5164653817905</v>
+        <v>372.6377557685071</v>
       </c>
       <c r="C9" t="n">
-        <v>440.4830989399894</v>
+        <v>415.4714190587681</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.66</v>
+        <v>-10.31</v>
       </c>
       <c r="E9" t="n">
-        <v>25.30255069163524</v>
+        <v>22.73537672504192</v>
       </c>
       <c r="F9" t="n">
-        <v>20.16320135014039</v>
+        <v>18.16199331437614</v>
       </c>
       <c r="G9" t="n">
-        <v>360.2941176470588</v>
+        <v>343.6188554092861</v>
       </c>
       <c r="H9" t="n">
-        <v>399.1944444444445</v>
+        <v>380.8147797481968</v>
       </c>
       <c r="I9" t="n">
-        <v>428.0540540540541</v>
+        <v>404.7662379128714</v>
       </c>
       <c r="J9" t="n">
-        <v>467.516129032258</v>
+        <v>443.1763366070703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>670.2551464777471</v>
+        <v>371.0251598776891</v>
       </c>
       <c r="C10" t="n">
-        <v>743.3086214982585</v>
+        <v>337.3442341519182</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.83</v>
+        <v>9.98</v>
       </c>
       <c r="E10" t="n">
-        <v>51.47307585582318</v>
+        <v>21.70110919672165</v>
       </c>
       <c r="F10" t="n">
-        <v>72.92720939330938</v>
+        <v>18.55005962974237</v>
       </c>
       <c r="G10" t="n">
-        <v>602.2222222222222</v>
+        <v>336.8281547835174</v>
       </c>
       <c r="H10" t="n">
-        <v>638.6666666666666</v>
+        <v>312.2836216826745</v>
       </c>
       <c r="I10" t="n">
-        <v>726.1351351351351</v>
+        <v>387.1249594865291</v>
       </c>
       <c r="J10" t="n">
-        <v>893.8571428571429</v>
+        <v>373.9988628839857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.4135544212944</v>
+        <v>634.1503752377159</v>
       </c>
       <c r="C11" t="n">
-        <v>357.8958443427949</v>
+        <v>700.9040554317363</v>
       </c>
       <c r="D11" t="n">
-        <v>9.640000000000001</v>
+        <v>-9.52</v>
       </c>
       <c r="E11" t="n">
-        <v>22.50433614551529</v>
+        <v>48.41079773355668</v>
       </c>
       <c r="F11" t="n">
-        <v>19.90170352917276</v>
+        <v>68.80240403557058</v>
       </c>
       <c r="G11" t="n">
-        <v>357.5555555555555</v>
+        <v>566.7822713398243</v>
       </c>
       <c r="H11" t="n">
-        <v>333.6666666666667</v>
+        <v>601.7674645570363</v>
       </c>
       <c r="I11" t="n">
-        <v>411.3243243243243</v>
+        <v>683.3895994405326</v>
       </c>
       <c r="J11" t="n">
-        <v>399.9444444444445</v>
+        <v>839.1136476804604</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6762.523636329829</v>
+        <v>6401.619088002421</v>
       </c>
       <c r="C12" t="n">
-        <v>7451.203390133724</v>
+        <v>7029.398236223848</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.24</v>
+        <v>-8.93</v>
       </c>
       <c r="E12" t="n">
-        <v>592.216173684484</v>
+        <v>536.4149841239592</v>
       </c>
       <c r="F12" t="n">
-        <v>381.1414890483948</v>
+        <v>368.4574788043466</v>
       </c>
       <c r="G12" t="n">
-        <v>6148.973684210527</v>
+        <v>5854.851126469145</v>
       </c>
       <c r="H12" t="n">
-        <v>6898.315789473684</v>
+        <v>6460.413959497083</v>
       </c>
       <c r="I12" t="n">
-        <v>7738.611111111111</v>
+        <v>7294.948835296573</v>
       </c>
       <c r="J12" t="n">
-        <v>8353.322580645161</v>
+        <v>7913.337624110826</v>
       </c>
     </row>
     <row r="13">
@@ -861,303 +861,303 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>273.9395001812959</v>
+        <v>259.2020930283394</v>
       </c>
       <c r="C13" t="n">
-        <v>300.127298342985</v>
+        <v>283.0293568729629</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.73</v>
+        <v>-8.42</v>
       </c>
       <c r="E13" t="n">
-        <v>11.80191701525046</v>
+        <v>10.00042652703763</v>
       </c>
       <c r="F13" t="n">
-        <v>20.9515429486827</v>
+        <v>19.52521997392661</v>
       </c>
       <c r="G13" t="n">
-        <v>256.4473684210527</v>
+        <v>244.0661930542341</v>
       </c>
       <c r="H13" t="n">
-        <v>267.7837837837838</v>
+        <v>253.3398223620428</v>
       </c>
       <c r="I13" t="n">
-        <v>283.5945945945946</v>
+        <v>266.9661071092552</v>
       </c>
       <c r="J13" t="n">
-        <v>344.4193548387097</v>
+        <v>326.2932835732311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>highdecel_count_full_tip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.6286717057615</v>
+        <v>39.54145178760992</v>
       </c>
       <c r="C14" t="n">
-        <v>261.3587918051736</v>
+        <v>36.57610884996854</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.31</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>10.30805391495028</v>
+        <v>1.518705627968944</v>
       </c>
       <c r="F14" t="n">
-        <v>16.83744418076863</v>
+        <v>2.333131123601944</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4473684210526</v>
+        <v>37.37377923268704</v>
       </c>
       <c r="H14" t="n">
-        <v>234.4324324324324</v>
+        <v>31.89491258960997</v>
       </c>
       <c r="I14" t="n">
-        <v>248.7222222222222</v>
+        <v>41.63703451013856</v>
       </c>
       <c r="J14" t="n">
-        <v>298.0322580645162</v>
+        <v>40.0997764924509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.82300690783662</v>
+        <v>226.7496439956706</v>
       </c>
       <c r="C15" t="n">
-        <v>38.80936123651293</v>
+        <v>246.4777027410842</v>
       </c>
       <c r="D15" t="n">
-        <v>7.77</v>
+        <v>-8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.626242684432283</v>
+        <v>8.716676774260581</v>
       </c>
       <c r="F15" t="n">
-        <v>2.482864411457788</v>
+        <v>15.66507523927977</v>
       </c>
       <c r="G15" t="n">
-        <v>39.72222222222222</v>
+        <v>213.6248492600263</v>
       </c>
       <c r="H15" t="n">
-        <v>33.91176470588236</v>
+        <v>221.8202145568863</v>
       </c>
       <c r="I15" t="n">
-        <v>44.24324324324324</v>
+        <v>234.3660304445436</v>
       </c>
       <c r="J15" t="n">
-        <v>42.63888888888889</v>
+        <v>282.3192247311213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3277.307310406382</v>
+        <v>212.2127966195529</v>
       </c>
       <c r="C16" t="n">
-        <v>3551.753075315117</v>
+        <v>197.5681176484451</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.73</v>
+        <v>7.41</v>
       </c>
       <c r="E16" t="n">
-        <v>112.7212768312984</v>
+        <v>11.55440508780838</v>
       </c>
       <c r="F16" t="n">
-        <v>248.8326251973704</v>
+        <v>12.53136109583805</v>
       </c>
       <c r="G16" t="n">
-        <v>3100.578947368421</v>
+        <v>195.3979334832982</v>
       </c>
       <c r="H16" t="n">
-        <v>3129.108108108108</v>
+        <v>179.8137021520933</v>
       </c>
       <c r="I16" t="n">
-        <v>3406.378378378378</v>
+        <v>223.5256608571924</v>
       </c>
       <c r="J16" t="n">
-        <v>4035.628571428571</v>
+        <v>224.3303883474233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.42814548294425</v>
+        <v>3101.856167357677</v>
       </c>
       <c r="C17" t="n">
-        <v>53.52895080353785</v>
+        <v>3350.017543582269</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.66</v>
+        <v>-7.41</v>
       </c>
       <c r="E17" t="n">
-        <v>4.257584009435102</v>
+        <v>96.66890102150535</v>
       </c>
       <c r="F17" t="n">
-        <v>2.664996249762853</v>
+        <v>235.6447843277602</v>
       </c>
       <c r="G17" t="n">
-        <v>44.8421052631579</v>
+        <v>2949.762394878265</v>
       </c>
       <c r="H17" t="n">
-        <v>49.55555555555556</v>
+        <v>2961.264938373056</v>
       </c>
       <c r="I17" t="n">
-        <v>55.4054054054054</v>
+        <v>3206.238994396926</v>
       </c>
       <c r="J17" t="n">
-        <v>58.91666666666666</v>
+        <v>3822.019752372274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>highdecel_count_full_otip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2607.052163928634</v>
+        <v>46.80386024210456</v>
       </c>
       <c r="C18" t="n">
-        <v>2808.44445381686</v>
+        <v>50.48564294490427</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.17</v>
+        <v>-7.29</v>
       </c>
       <c r="E18" t="n">
-        <v>109.7842759659643</v>
+        <v>3.854149654089232</v>
       </c>
       <c r="F18" t="n">
-        <v>182.8159953165728</v>
+        <v>2.3877813313263</v>
       </c>
       <c r="G18" t="n">
-        <v>2448.5</v>
+        <v>42.72054323117423</v>
       </c>
       <c r="H18" t="n">
-        <v>2451.783783783784</v>
+        <v>46.66148726448649</v>
       </c>
       <c r="I18" t="n">
-        <v>2706.444444444444</v>
+        <v>52.40385255022856</v>
       </c>
       <c r="J18" t="n">
-        <v>3161.548387096774</v>
+        <v>55.35588011076818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224.408391208546</v>
+        <v>250.8776109816052</v>
       </c>
       <c r="C19" t="n">
-        <v>209.6338890122092</v>
+        <v>233.8312955270938</v>
       </c>
       <c r="D19" t="n">
-        <v>7.05</v>
+        <v>7.29</v>
       </c>
       <c r="E19" t="n">
-        <v>12.20985490873209</v>
+        <v>15.48500462907599</v>
       </c>
       <c r="F19" t="n">
-        <v>13.50665814775335</v>
+        <v>15.98696555640467</v>
       </c>
       <c r="G19" t="n">
-        <v>207.5833333333333</v>
+        <v>228.7431374895635</v>
       </c>
       <c r="H19" t="n">
-        <v>191.3529411764706</v>
+        <v>211.1445667344829</v>
       </c>
       <c r="I19" t="n">
-        <v>237.5405405405405</v>
+        <v>265.7318283567741</v>
       </c>
       <c r="J19" t="n">
-        <v>239.9722222222222</v>
+        <v>268.5063663801603</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>sprint_distance_full_tip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>265.2888535594418</v>
+        <v>757.7623611774042</v>
       </c>
       <c r="C20" t="n">
-        <v>248.1136849305969</v>
+        <v>707.0020769606567</v>
       </c>
       <c r="D20" t="n">
-        <v>6.92</v>
+        <v>7.18</v>
       </c>
       <c r="E20" t="n">
-        <v>16.36397333261147</v>
+        <v>113.4588137231953</v>
       </c>
       <c r="F20" t="n">
-        <v>17.24683878136912</v>
+        <v>77.85898845033138</v>
       </c>
       <c r="G20" t="n">
-        <v>243.0555555555555</v>
+        <v>617.2524073440741</v>
       </c>
       <c r="H20" t="n">
-        <v>224.7058823529412</v>
+        <v>609.0852414515706</v>
       </c>
       <c r="I20" t="n">
-        <v>282.4054054054054</v>
+        <v>847.4837575814532</v>
       </c>
       <c r="J20" t="n">
-        <v>287.2222222222222</v>
+        <v>862.4096956328447</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>hsr_distance_full_otip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>800.4463522345875</v>
+        <v>2467.705792119961</v>
       </c>
       <c r="C21" t="n">
-        <v>750.0812953356547</v>
+        <v>2649.113488150533</v>
       </c>
       <c r="D21" t="n">
-        <v>6.71</v>
+        <v>-6.85</v>
       </c>
       <c r="E21" t="n">
-        <v>119.1228560051238</v>
+        <v>96.73756003249434</v>
       </c>
       <c r="F21" t="n">
-        <v>83.65816064728655</v>
+        <v>173.2540760679061</v>
       </c>
       <c r="G21" t="n">
-        <v>656.2222222222222</v>
+        <v>2330.013959716519</v>
       </c>
       <c r="H21" t="n">
-        <v>645.6388888888889</v>
+        <v>2320.804939557562</v>
       </c>
       <c r="I21" t="n">
-        <v>893.8648648648649</v>
+        <v>2551.357721439193</v>
       </c>
       <c r="J21" t="n">
-        <v>922.8611111111111</v>
+        <v>2996.468541485473</v>
       </c>
     </row>
     <row r="22">
@@ -1167,31 +1167,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3171.376750434645</v>
+        <v>3000.154345636548</v>
       </c>
       <c r="C22" t="n">
-        <v>2984.926228373656</v>
+        <v>2813.741395752376</v>
       </c>
       <c r="D22" t="n">
-        <v>6.25</v>
+        <v>6.63</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3883804119669</v>
+        <v>253.2440063803396</v>
       </c>
       <c r="F22" t="n">
-        <v>225.429902421641</v>
+        <v>210.4249249021005</v>
       </c>
       <c r="G22" t="n">
-        <v>2788.777777777778</v>
+        <v>2625.158861871064</v>
       </c>
       <c r="H22" t="n">
-        <v>2699</v>
+        <v>2535.877616858636</v>
       </c>
       <c r="I22" t="n">
-        <v>3403</v>
+        <v>3228.978094856374</v>
       </c>
       <c r="J22" t="n">
-        <v>3462.027777777778</v>
+        <v>3236.444163688667</v>
       </c>
     </row>
     <row r="23">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.8804623508958</v>
+        <v>38.66481436205228</v>
       </c>
       <c r="C23" t="n">
-        <v>38.47979591838774</v>
+        <v>36.26317787864867</v>
       </c>
       <c r="D23" t="n">
-        <v>6.24</v>
+        <v>6.62</v>
       </c>
       <c r="E23" t="n">
-        <v>4.419566534781073</v>
+        <v>4.186344486410466</v>
       </c>
       <c r="F23" t="n">
-        <v>3.946179966407858</v>
+        <v>3.660349445044858</v>
       </c>
       <c r="G23" t="n">
-        <v>35.47222222222222</v>
+        <v>33.34520400626526</v>
       </c>
       <c r="H23" t="n">
-        <v>33.35294117647059</v>
+        <v>31.33086458238964</v>
       </c>
       <c r="I23" t="n">
-        <v>44.86486486486486</v>
+        <v>42.20616749958173</v>
       </c>
       <c r="J23" t="n">
-        <v>47.25</v>
+        <v>44.17597803273693</v>
       </c>
     </row>
     <row r="24">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2370.930398200058</v>
+        <v>2242.391984459144</v>
       </c>
       <c r="C24" t="n">
-        <v>2234.844933038002</v>
+        <v>2106.739318791719</v>
       </c>
       <c r="D24" t="n">
-        <v>6.09</v>
+        <v>6.44</v>
       </c>
       <c r="E24" t="n">
-        <v>154.8168338069908</v>
+        <v>148.1737254181544</v>
       </c>
       <c r="F24" t="n">
-        <v>156.4746779448015</v>
+        <v>146.6294155014505</v>
       </c>
       <c r="G24" t="n">
-        <v>2132.555555555556</v>
+        <v>2007.90645452699</v>
       </c>
       <c r="H24" t="n">
-        <v>2047.411764705882</v>
+        <v>1923.973250434202</v>
       </c>
       <c r="I24" t="n">
-        <v>2512.882352941177</v>
+        <v>2381.49433727492</v>
       </c>
       <c r="J24" t="n">
-        <v>2539.166666666667</v>
+        <v>2374.034468055822</v>
       </c>
     </row>
     <row r="25">
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.61252196468914</v>
+        <v>19.51677973009632</v>
       </c>
       <c r="C25" t="n">
-        <v>21.70451583483442</v>
+        <v>20.45124364034154</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.03</v>
+        <v>-4.57</v>
       </c>
       <c r="E25" t="n">
-        <v>1.685055320724574</v>
+        <v>1.556412175395419</v>
       </c>
       <c r="F25" t="n">
-        <v>1.332890566649161</v>
+        <v>1.209285711414254</v>
       </c>
       <c r="G25" t="n">
-        <v>18.31578947368421</v>
+        <v>17.43523994079843</v>
       </c>
       <c r="H25" t="n">
-        <v>19.39473684210526</v>
+        <v>18.45047282502311</v>
       </c>
       <c r="I25" t="n">
-        <v>23.05405405405405</v>
+        <v>21.82375188926511</v>
       </c>
       <c r="J25" t="n">
-        <v>23.72972972972973</v>
+        <v>22.32968082193736</v>
       </c>
     </row>
     <row r="26">
@@ -1303,31 +1303,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1960.19461861397</v>
+        <v>1854.429759905351</v>
       </c>
       <c r="C26" t="n">
-        <v>2013.279798698554</v>
+        <v>1898.640765806154</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.64</v>
+        <v>-2.33</v>
       </c>
       <c r="E26" t="n">
-        <v>91.94731956190445</v>
+        <v>80.93456021654049</v>
       </c>
       <c r="F26" t="n">
-        <v>56.02261417878828</v>
+        <v>53.94696992923298</v>
       </c>
       <c r="G26" t="n">
-        <v>1798.187631578948</v>
+        <v>1710.777219034276</v>
       </c>
       <c r="H26" t="n">
-        <v>1890.902105263158</v>
+        <v>1771.447233404109</v>
       </c>
       <c r="I26" t="n">
-        <v>2017.574722222222</v>
+        <v>1900.827443428021</v>
       </c>
       <c r="J26" t="n">
-        <v>2117.182702702702</v>
+        <v>1990.21486077696</v>
       </c>
     </row>
     <row r="27">
@@ -1337,31 +1337,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1859.633710289236</v>
+        <v>1759.309419383992</v>
       </c>
       <c r="C27" t="n">
-        <v>1893.408175139213</v>
+        <v>1785.157316325987</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.78</v>
+        <v>-1.45</v>
       </c>
       <c r="E27" t="n">
-        <v>79.25132198911413</v>
+        <v>68.34387076500634</v>
       </c>
       <c r="F27" t="n">
-        <v>63.37387130742393</v>
+        <v>59.49952442158469</v>
       </c>
       <c r="G27" t="n">
-        <v>1727.025263157895</v>
+        <v>1642.562416926959</v>
       </c>
       <c r="H27" t="n">
-        <v>1794.498709677419</v>
+        <v>1697.513342961181</v>
       </c>
       <c r="I27" t="n">
-        <v>1927.291351351351</v>
+        <v>1813.472520353595</v>
       </c>
       <c r="J27" t="n">
-        <v>2039.48945945946</v>
+        <v>1917.084750358108</v>
       </c>
     </row>
   </sheetData>
